--- a/loadport_Error_Code.xlsx
+++ b/loadport_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,13 +36,343 @@
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E０１</t>
+  </si>
+  <si>
+    <t>동작 중 실행 불가능 커맨드를 수신</t>
+  </si>
+  <si>
+    <t>커맨드 일람표 확인</t>
+  </si>
+  <si>
+    <t>E０２</t>
+  </si>
+  <si>
+    <t>에러 중에 구동 커맨드를 수신</t>
+  </si>
+  <si>
+    <t>DRT 명령 후 사용</t>
+  </si>
+  <si>
+    <t>E０３</t>
+  </si>
+  <si>
+    <t>이 상태에서는 커맨드는 수신할 수 없음</t>
+  </si>
+  <si>
+    <t>E０４</t>
+  </si>
+  <si>
+    <t>정지 요구 중에 다시 정지 커맨드를 수신</t>
+  </si>
+  <si>
+    <t>정지 시 까지 대기</t>
+  </si>
+  <si>
+    <t>E０５</t>
+  </si>
+  <si>
+    <t>데이터범위에러 (데이터가 설정 범위를 넘음)</t>
+  </si>
+  <si>
+    <t>데이터 설정 범위 확인</t>
+  </si>
+  <si>
+    <t>E０６</t>
+  </si>
+  <si>
+    <t>포맷에러</t>
+  </si>
+  <si>
+    <t>E０７</t>
+  </si>
+  <si>
+    <t>이동 범위가 소프트 리미트를 넘음</t>
+  </si>
+  <si>
+    <t>동작 영역 확인 및</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소프트 리미트 확인</t>
+  </si>
+  <si>
+    <t>E０８</t>
+  </si>
+  <si>
+    <t xml:space="preserve">포지션 넘버에러 </t>
+  </si>
+  <si>
+    <t>（ＰＯＦ을 송신하지 않고 ＰＯＳ를 송신）</t>
+  </si>
+  <si>
+    <t>POF 명령어를 먼저 보낸 후POS명령어 사용</t>
+  </si>
+  <si>
+    <t>E０９</t>
+  </si>
+  <si>
+    <t>지정한 포지션 데이터 없음</t>
+  </si>
+  <si>
+    <t>지정 번호의 Point Data가 존재 하는지 확인</t>
+  </si>
+  <si>
+    <t>E１０</t>
+  </si>
+  <si>
+    <t>이 명령은 실행할 수 없음</t>
+  </si>
+  <si>
+    <t>C-HOST 명령어 확인</t>
+  </si>
+  <si>
+    <t>E１１</t>
+  </si>
+  <si>
+    <t>ＰＯＳ의 요청 범위가 너무 큼</t>
+  </si>
+  <si>
+    <t>수신 데이터 범위를 줄여서 사용</t>
+  </si>
+  <si>
+    <t>E１２</t>
+  </si>
+  <si>
+    <t>지정매크로가 존재 하지 않음</t>
+  </si>
+  <si>
+    <t>매크로 명령어 확인</t>
+  </si>
+  <si>
+    <t>E１3</t>
+  </si>
+  <si>
+    <t>매크로 명령어가 중복 정의 되어 있슴</t>
+  </si>
+  <si>
+    <t>매크로 명령어 확인 </t>
+  </si>
+  <si>
+    <t>E９９</t>
+  </si>
+  <si>
+    <t>통신 이상</t>
+  </si>
+  <si>
+    <t>통신 케이블 확인</t>
+  </si>
+  <si>
+    <t>비상 정지가 입력</t>
+  </si>
+  <si>
+    <t>비상 S/W 해제</t>
+  </si>
+  <si>
+    <t>오버 런 상태</t>
+  </si>
+  <si>
+    <t>소프트 리미트 및 동작 범위 확인</t>
+  </si>
+  <si>
+    <t>배리어 체크</t>
+  </si>
+  <si>
+    <t>소프트 리미트 확인</t>
+  </si>
+  <si>
+    <t>드라이버가 알람 상태</t>
+  </si>
+  <si>
+    <t>FOUP Clamp Up 동작 Error</t>
+  </si>
+  <si>
+    <t>Sensor 확인 Timeout</t>
+  </si>
+  <si>
+    <t>FOUP Clamp Down동작 Error</t>
+  </si>
+  <si>
+    <t>FOUP Clamp LOCK 동작 Error</t>
+  </si>
+  <si>
+    <t>FOUP Clamp Forward 동작 Error</t>
+  </si>
+  <si>
+    <t>FOUP Clamp Backward 동작 Error</t>
+  </si>
+  <si>
+    <t>FOUP Docking 동작 Error</t>
+  </si>
+  <si>
+    <t>FOUP Undocking 동작 Error</t>
+  </si>
+  <si>
+    <t>Door Latch 동작 Error</t>
+  </si>
+  <si>
+    <t>Door Unlatch 동작 Error</t>
+  </si>
+  <si>
+    <t>Door Suction On 동작 Error</t>
+  </si>
+  <si>
+    <t>Door Suction Off 동작 Error</t>
+  </si>
+  <si>
+    <t>Door Open 동작 Error</t>
+  </si>
+  <si>
+    <t>Door Close 동작 Error</t>
+  </si>
+  <si>
+    <t>Mapping Arm HOME 위치 Error</t>
+  </si>
+  <si>
+    <t>Mapping Arm MAP 위치 Error</t>
+  </si>
+  <si>
+    <t>INTER LOCK – Wafer가  FOUP으로부터 돌출 되었습니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – FOUP의 DOOR가 Loadport의 DOOR에 부착되어 있어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - FOUP Clamper가 UP 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTER LOCK - FOUP Clamper가 DOWN 상태이어야 합니다. </t>
+  </si>
+  <si>
+    <t>INTER LOCK - FOUP Clamper가 LOCK 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - FOUP Clamper가 Forward 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - FOUP Clamper가 Backward 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – FOUP이 Docking 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – FOUP이 Undocking 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – Door Latch key가 Latch 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - Door Latch key가 Unlatch 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - Door Suction이 ON 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - Door Suction이 OFF 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - Door가 Open 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – Door가 Close 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - 매핑 암이 HOME 위치 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - 매핑 암이 MAP 위치 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – DOOR가 UP 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – DOOR가 DOWN 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – 매핑 시작 위치 이동 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – 매핑 끝위치 이동 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - 웨이퍼 돌출감지 error 입니다..</t>
+  </si>
+  <si>
+    <t>INTER LOCK - MAIN AIR가 error 상태 입니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – FOUP이 정상적으로 놓여지지 않은 상태 입니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK – FOUP이 없는 상태 입니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - OBSTACLE DETECTION error 상태 입니다.</t>
+  </si>
+  <si>
+    <t>INTER LOCK - 매핑 위치 상태이어야 합니다.</t>
+  </si>
+  <si>
+    <t>LOADING 조건 error 상태입니다.</t>
+  </si>
+  <si>
+    <t>UNLOADING 조건 error 상태입니다.</t>
+  </si>
+  <si>
+    <t>모터 탈조시 Error.</t>
+  </si>
+  <si>
+    <t>N2 Valve Up 동작 Error</t>
+  </si>
+  <si>
+    <t>N2 Valve Down 동작 Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTER LOCK – N2 O2 Leak ALARM </t>
+  </si>
+  <si>
+    <t>INTER LOCK – N2 PRESSURE MAIN Error</t>
+  </si>
+  <si>
+    <t>INTER LOCK - N2 PRESSURE1 100LPM Error</t>
+  </si>
+  <si>
+    <t>INTER LOCK - N2 PRESSURE2 200LPM Error</t>
+  </si>
+  <si>
+    <t>INTER LOCK – N2 PRESSURE EXHAUST Error</t>
+  </si>
+  <si>
+    <t>INTER LOCK - N2 PRESSURE MAIN FRONT Error</t>
+  </si>
+  <si>
+    <t>INTER LOCK - N2 PRESSURE MAIN REAR Error</t>
+  </si>
+  <si>
+    <t>MFC1 Tolerance 오차 에러.</t>
+  </si>
+  <si>
+    <t>MFC2 Tolerance 오차 에러.</t>
+  </si>
+  <si>
+    <t>N2 Valve Up Front 동작 Error. (수동 조작시)</t>
+  </si>
+  <si>
+    <t>N2 Valve Down Front 동작 Error. (수동 조작시)</t>
+  </si>
+  <si>
+    <t>N2 Valve Up Back 동작 Error. (수동 조작시)</t>
+  </si>
+  <si>
+    <t>N2 Valve Down Back 동작 Error. (수동 조작시)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,16 +388,57 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -75,15 +446,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E1"/>
+  <dimension ref="C1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -378,7 +893,7 @@
     <col min="5" max="5" width="68.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +904,762 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="8"/>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="3">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="3">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="3">
+        <v>12</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="1">
+        <v>201</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="3">
+        <v>202</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="3">
+        <v>203</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="3">
+        <v>204</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="3">
+        <v>205</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="3">
+        <v>206</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="3">
+        <v>207</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="3">
+        <v>208</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="3">
+        <v>209</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="3">
+        <v>210</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="3">
+        <v>211</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="3">
+        <v>212</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="3">
+        <v>213</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="3">
+        <v>214</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="3">
+        <v>215</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="3">
+        <v>216</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="3">
+        <v>217</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="3">
+        <v>221</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="3">
+        <v>222</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="3">
+        <v>223</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="3">
+        <v>224</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="3">
+        <v>225</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C44" s="3">
+        <v>226</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="1">
+        <v>227</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C46" s="3">
+        <v>228</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C47" s="3">
+        <v>229</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="3">
+        <v>230</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="3">
+        <v>231</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C50" s="3">
+        <v>232</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="3">
+        <v>233</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="3">
+        <v>234</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="3">
+        <v>235</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C54" s="3">
+        <v>236</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C55" s="3">
+        <v>237</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="3">
+        <v>238</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C57" s="3">
+        <v>239</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="3">
+        <v>240</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="3">
+        <v>241</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C60" s="3">
+        <v>242</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C61" s="3">
+        <v>243</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C62" s="3">
+        <v>244</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="3">
+        <v>245</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C64" s="3">
+        <v>246</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C65" s="3">
+        <v>247</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C66" s="3">
+        <v>248</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C67" s="3">
+        <v>250</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C68" s="3">
+        <v>251</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C69" s="3">
+        <v>253</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C70" s="3">
+        <v>255</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C71" s="3">
+        <v>256</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C72" s="3">
+        <v>257</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C73" s="3">
+        <v>259</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C74" s="3">
+        <v>263</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C75" s="3">
+        <v>264</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C76" s="3">
+        <v>265</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C77" s="3">
+        <v>266</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C78" s="3">
+        <v>270</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C79" s="3">
+        <v>271</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C80" s="3">
+        <v>272</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="3">
+        <v>273</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/loadport_Error_Code.xlsx
+++ b/loadport_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,9 +320,6 @@
     <t>UNLOADING 조건 error 상태입니다.</t>
   </si>
   <si>
-    <t>모터 탈조시 Error.</t>
-  </si>
-  <si>
     <t>N2 Valve Up 동작 Error</t>
   </si>
   <si>
@@ -366,6 +363,174 @@
   </si>
   <si>
     <t>N2 Valve Down Back 동작 Error. (수동 조작시)</t>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(센서 무시) : 변수 1번을 1로 설정하면 FOUP의 Clamper가 UP동작 시 Up Position 센서 확인을 무시하게 됩니다. 이 기능은 해당 센서가 고장 났을 때, 설비를 정지시키지 않고 임시로 사용할 수 있게 하기 위한 것입니다. 
+(Lock 해제) : 변수 21번을 1로 설정하면 FOUP의 Clamper가 UP동작 시 확인하는 모든 조건을 무시하고 무조건 동작하게 됩니다. 이 기능은 Loadport를 수동으로 동작 시 사용됩니다. 
+(CLAMP 센서 사용 유/무 설정) : clamp sensor 를 선택적으로 사용하지 않도록 설정
+ 변수 18 = 0 으로 설정한 경우,
+     clamp up(DI3-1) = 0, clamp down(DI3-2) = 0 인 조건에서 clamp 된 것으로 인식
+ 변수 18 = 1 으로 설정한 경우,
+     clamp sensor(DI3-2) = 1 인 조건에서 clamp 된 것으로 인식
+(설정방법)
+명령  : VAR  Vv=n
+인수  : v는 변수 번호(1~96). n은 설정하고자 하는 상태 값(0, 1)
+기능  : Loadport 사용 지역 변수 설정 및 읽기.
+Return  : VAR
+Ex) 변수 설정 command packet
+: 변수 31번을1로 설정
+☞ “VAR V31=1”.
+Ex) 설정된 변수 확인 command packet
+: 변수 31번의 상태를 읽어옴.
+☞ “VAR V31\r\n”.
+Return : VAR V31=1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변수 이름 설정
+1 FOUP Clamper UP (센서무시) 0
+2 FOUP Clamper DOWN (센서무시) 0
+3 FOUP Clamper LOCK (센서무시) 0
+4 
+5 
+6 FOUP on the Dock (센서무시) 0
+7 FOUP on the Undock (센서무시) 0
+8 Door on the Latch (센서무시) 0
+9 Door on the Unlatch (센서무시) 0
+10 Door Suction ON (센서무시) 0
+11 Door Suction OFF (센서무시) 0
+12 Open the Door (센서무시) 0
+13 Close the Door (센서무시) 0
+14 매핑 암HOME 위치 (센서무시) 0
+15 매핑 암MAP 위치 (센서무시) 0
+16 웨이퍼 돌출감지 (센서무시) 0
+17 Door Detct (센서무시) 1
+18 CLAMP 센서 사용 0
+19 Unload시 Door 체크 기능 무시 1
+20 Door Unload Interlock 사용 0
+21 FOUP Clamper UP (Lock해제) 0
+22 FOUP Clamper DOWN (Lock해제) 0
+23 FOUP Clamper LOCK Lock (Lock해제) 0
+24 
+25 
+26 FOUP on the Dock Lock (Lock해제) 0
+27 FOUP on the Undock (Lock해제) 0
+28 Door on the Latch (Lock해제) 0
+29 Door on the Unlatch (Lock해제) 0
+30 Door Suction ON (Lock해제) 0
+31 Door Suction OFF (Lock해제) 0
+32 Open the Door (Lock해제) 0
+33 Close the Door (Lock해제) 0
+34 매핑 암HOME 위치 (Lock해제) 1
+35 매핑 암MAP 위치 (Lock해제) 1
+36 웨이퍼 돌출감지 (Lock해제) 1
+37 PLACEMENT (Lock해제) 1
+38 PRESENCE (Lock해제) 1
+39 DOOR DETECTION (Lock해제) 1
+40 OBSTACLE DETECTION (Lock해제) 1
+41 단위동작 시간 전송 기능 1
+42 홀드 토크 60
+43 동작 토크 100
+44  
+45  
+46  
+47  
+48  
+49  
+50 인수1계산용 변수 
+51 매핑 재시도 횟수 0
+52  
+53 Placement 센서 3개 0
+54  
+55 솔레노이드 사용 변수 
+56 솔레노이드 사용 변수 
+57 솔레노이드 사용 변수 
+58 솔레노이드 사용 변수 
+59 솔레노이드 딜레이 타임 50
+60 FBDK 지연 시간 1500
+61  FBUK 지연 시간 1000
+62 암HOME 위치 지연 시간 1000
+63 암 매핑 위치 지연 시간 1000
+64 DOOR OPEN 지연 시간 1000
+65 DOOR CLOSE 지연 시간 1000
+66 SUCTION ON 지연 시간 200
+67 SUCTION OFF 지연 시간 200
+68 Unload시(CLOSE) Mapping 유무 0
+69  
+70  
+71 LATCH 지연 시간 0
+72  
+73 UNLATCH 지연 시간 400
+74  
+75  
+76  
+77 매핑 캘 시 평균값 사용 0
+78  
+79  
+80 Door UP 위치 펄스값 
+81 Door Down 위치 펄스값 
+82 매핑 시작 위치 펄스값 
+83 매핑 끝 위치 펄스값 
+84  
+85  
+86  
+87 웨이퍼 기준 위치 펄스값 
+88 슬롯개수 (1~50) 25
+89 피치 (3200pulse=10mm) 3200
+90 기울기스레시홀드 (1~100) 60
+91 겹침스레시홀드 (1~100) 80
+92 웨이퍼두께 (1~10000um) 
+93 매핑 속도(%)매핑 속도 (1~100) 8050
+94 펄스값 100000
+95 Z축 드라이브번호 1
+96 데모프로그램 설정 (0~1) 0
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Loadport의door를open하고 close 하는 door 위치입니다. 또한, Loadport를origin 하면 origin 종료 후, 이 위치로 door가 이동하게 됩니다.
+2 Loadport의loading 과정이 종료되고 door가 완전히 개방된 상태의 door 위치입니다.
+11 Mapping 동작을 시작하는 door 위치입니다.
+12 Mapping 동작을 종료하는 door 위치입니다.
+☞ 본 Command는 loadport 출하 시 미리 설정되어 출하 됩니다. 사용자는 이 설정은 변경하실 수 없으며
+모터 교체나 origin 센서의 위치 변화 등의 이유로 인해 point 데이터를 변경할 시에는 제조업체에 문의 하시기 
+바랍니다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준: UNLOADING DOOR INTERLOCK – Door Unloading 시 Interlock 센서가 감지됨
+N2: 모터 탈조시 Error.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -539,19 +704,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -561,10 +720,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,32 +765,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,16 +1048,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E81"/>
+  <dimension ref="C1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="25.3984375" customWidth="1"/>
-    <col min="4" max="4" width="49.8984375" customWidth="1"/>
+    <col min="4" max="4" width="91.5" customWidth="1"/>
     <col min="5" max="5" width="68.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -905,380 +1073,380 @@
       </c>
     </row>
     <row r="2" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="3">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="3">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="3">
-        <v>12</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="1">
+      <c r="C22" s="12">
         <v>201</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="3">
+      <c r="C23" s="13">
         <v>202</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="3">
+      <c r="C24" s="13">
         <v>203</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="3">
+      <c r="C25" s="13">
         <v>204</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="3">
+      <c r="C26" s="13">
         <v>205</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="3">
+      <c r="C27" s="13">
         <v>206</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C28" s="3">
+      <c r="C28" s="13">
         <v>207</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="3">
+      <c r="C29" s="13">
         <v>208</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="3">
+      <c r="C30" s="13">
         <v>209</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="3">
+      <c r="C31" s="13">
         <v>210</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="3">
+      <c r="C32" s="13">
         <v>211</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C33" s="3">
+      <c r="C33" s="13">
         <v>212</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="3">
+      <c r="C34" s="13">
         <v>213</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="3">
+      <c r="C35" s="13">
         <v>214</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="3">
+      <c r="C36" s="13">
         <v>215</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="3">
+      <c r="C37" s="13">
         <v>216</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -1287,7 +1455,7 @@
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="3">
+      <c r="C38" s="13">
         <v>217</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -1296,7 +1464,7 @@
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="3">
+      <c r="C39" s="13">
         <v>221</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -1305,7 +1473,7 @@
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="3">
+      <c r="C40" s="13">
         <v>222</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -1314,7 +1482,7 @@
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="3">
+      <c r="C41" s="13">
         <v>223</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -1323,7 +1491,7 @@
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="3">
+      <c r="C42" s="13">
         <v>224</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -1332,7 +1500,7 @@
       <c r="E42" s="15"/>
     </row>
     <row r="43" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="3">
+      <c r="C43" s="13">
         <v>225</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -1341,7 +1509,7 @@
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="3">
+      <c r="C44" s="13">
         <v>226</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -1350,308 +1518,327 @@
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="1">
+      <c r="C45" s="12">
         <v>227</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="46" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="3">
+      <c r="C46" s="13">
         <v>228</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="3">
+      <c r="C47" s="13">
         <v>229</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="3">
+      <c r="C48" s="13">
         <v>230</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C49" s="3">
+      <c r="C49" s="13">
         <v>231</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C50" s="3">
+      <c r="C50" s="13">
         <v>232</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="3">
+      <c r="C51" s="13">
         <v>233</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="3">
+      <c r="C52" s="13">
         <v>234</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="3">
+      <c r="C53" s="13">
         <v>235</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C54" s="3">
+      <c r="C54" s="13">
         <v>236</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C55" s="3">
+      <c r="C55" s="13">
         <v>237</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="3">
+      <c r="C56" s="13">
         <v>238</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C57" s="3">
+      <c r="C57" s="13">
         <v>239</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="3">
+      <c r="C58" s="13">
         <v>240</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C59" s="3">
+      <c r="C59" s="13">
         <v>241</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C60" s="3">
+      <c r="C60" s="13">
         <v>242</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C61" s="3">
+      <c r="C61" s="13">
         <v>243</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C62" s="3">
+      <c r="C62" s="13">
         <v>244</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C63" s="3">
+      <c r="C63" s="13">
         <v>245</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="64" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C64" s="3">
+      <c r="C64" s="13">
         <v>246</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C65" s="3">
+      <c r="C65" s="13">
         <v>247</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C66" s="3">
+    <row r="66" spans="3:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C66" s="13">
         <v>248</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C67" s="13">
+        <v>250</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C67" s="3">
-        <v>250</v>
-      </c>
-      <c r="D67" s="18" t="s">
+    <row r="68" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C68" s="13">
+        <v>251</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C68" s="3">
-        <v>251</v>
-      </c>
-      <c r="D68" s="18" t="s">
+    <row r="69" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C69" s="13">
+        <v>253</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C69" s="3">
-        <v>253</v>
-      </c>
-      <c r="D69" s="19" t="s">
+    <row r="70" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C70" s="13">
+        <v>255</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C70" s="3">
-        <v>255</v>
-      </c>
-      <c r="D70" s="19" t="s">
+    <row r="71" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C71" s="13">
+        <v>256</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C71" s="3">
-        <v>256</v>
-      </c>
-      <c r="D71" s="19" t="s">
+    <row r="72" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C72" s="13">
+        <v>257</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C72" s="3">
-        <v>257</v>
-      </c>
-      <c r="D72" s="19" t="s">
+    <row r="73" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C73" s="13">
+        <v>259</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C73" s="3">
-        <v>259</v>
-      </c>
-      <c r="D73" s="19" t="s">
+    <row r="74" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C74" s="13">
+        <v>263</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C74" s="3">
-        <v>263</v>
-      </c>
-      <c r="D74" s="19" t="s">
+    <row r="75" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C75" s="13">
+        <v>264</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C75" s="3">
-        <v>264</v>
-      </c>
-      <c r="D75" s="19" t="s">
+    <row r="76" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C76" s="13">
+        <v>265</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C76" s="3">
-        <v>265</v>
-      </c>
-      <c r="D76" s="19" t="s">
+    <row r="77" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C77" s="13">
+        <v>266</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C77" s="3">
-        <v>266</v>
-      </c>
-      <c r="D77" s="19" t="s">
+    <row r="78" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C78" s="13">
+        <v>270</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C78" s="3">
-        <v>270</v>
-      </c>
-      <c r="D78" s="19" t="s">
+    <row r="79" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C79" s="13">
+        <v>271</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="3">
-        <v>271</v>
-      </c>
-      <c r="D79" s="19" t="s">
+    <row r="80" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C80" s="13">
+        <v>272</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C80" s="3">
-        <v>272</v>
-      </c>
-      <c r="D80" s="19" t="s">
+    <row r="81" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="13">
+        <v>273</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C81" s="3">
-        <v>273</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>112</v>
+    <row r="82" spans="3:4" ht="409.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="C83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" ht="174" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
@@ -1659,6 +1846,11 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/loadport_Error_Code.xlsx
+++ b/loadport_Error_Code.xlsx
@@ -405,10 +405,6 @@
 ☞ “VAR V31\r\n”.
 Return : VAR V31=1
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,6 +526,11 @@
   <si>
     <t>표준: UNLOADING DOOR INTERLOCK – Door Unloading 시 Interlock 센서가 감지됨
 N2: 모터 탈조시 Error.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 설정
+변수설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,6 +748,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -764,9 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1137,10 +1138,10 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1148,29 +1149,29 @@
       </c>
     </row>
     <row r="9" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="17"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="13" t="s">
@@ -1449,73 +1450,73 @@
       <c r="C37" s="13">
         <v>216</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C38" s="13">
         <v>217</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" s="13">
         <v>221</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="15"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" s="13">
         <v>222</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="15"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C41" s="13">
         <v>223</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="15"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" s="13">
         <v>224</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C43" s="13">
         <v>225</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="15"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C44" s="13">
         <v>226</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C45" s="12">
@@ -1690,7 +1691,7 @@
         <v>248</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1817,24 +1818,24 @@
       <c r="C82" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="C83" t="s">
+      <c r="D82" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="20" t="s">
+    </row>
+    <row r="83" spans="3:4" ht="382.8" x14ac:dyDescent="0.4">
+      <c r="C83" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="174" x14ac:dyDescent="0.4">
       <c r="C84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/loadport_Error_Code.xlsx
+++ b/loadport_Error_Code.xlsx
@@ -529,8 +529,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변수 설정
-변수설정</t>
+    <t>변수 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1051,7 @@
   <dimension ref="C1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/loadport_Error_Code.xlsx
+++ b/loadport_Error_Code.xlsx
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/loadport_Error_Code.xlsx
+++ b/loadport_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,10 @@
   </si>
   <si>
     <t>변수 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E84"/>
+  <dimension ref="C1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1061,7 +1065,7 @@
     <col min="5" max="5" width="68.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1071,8 +1075,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
@@ -1136,7 +1143,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1147,14 +1154,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="18"/>
       <c r="D9" s="20"/>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
@@ -1165,14 +1172,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="18"/>
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C14" s="13" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="13" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1223,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C16" s="13" t="s">
         <v>39</v>
       </c>

--- a/loadport_Error_Code.xlsx
+++ b/loadport_Error_Code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>INTER LOCK - MAIN AIR가 error 상태 입니다.</t>
-  </si>
-  <si>
-    <t>INTER LOCK – FOUP이 정상적으로 놓여지지 않은 상태 입니다.</t>
   </si>
   <si>
     <t>INTER LOCK – FOUP이 없는 상태 입니다.</t>
@@ -534,6 +531,31 @@
   </si>
   <si>
     <t>attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOUP_안착센서_확인.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안착 버튼 의 센서 상태와 , 센서 커넥터 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTER LOCK – FOUP이 정상적으로 놓여지지 않은 상태 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 발생 조건:
+1) LP 로딩 시 Door Unlatch 동작 전에 진공 센서가 ON이 아닐 경우
+2) LP 언로딩 시 진공 센서가 ON이 아닐 경우
+3) LP 언로딩 중 Door Latch 동작 전에 진공 센서가 ON이 아닐 경우
+점검 및 조치:
+1) 에러 발생 시 진공 압력 확인 : 설정값 = -50 kPa
+2) 에러 발생 조건이 1)인 경우, Suction On 후 지연 시간 값을 늘려서 확인
+(변수 66번)
+3) 진공압이 약할 경우 FOUP 접촉 상태 확인
+  - FOUP Docking 위치 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1054,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1076,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1247,7 +1269,7 @@
     </row>
     <row r="18" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>45</v>
@@ -1258,7 +1280,7 @@
     </row>
     <row r="19" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>47</v>
@@ -1269,7 +1291,7 @@
     </row>
     <row r="20" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
@@ -1280,7 +1302,7 @@
     </row>
     <row r="21" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>51</v>
@@ -1548,15 +1570,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:5" ht="192" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C48" s="13">
         <v>230</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E48" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C49" s="13">
         <v>231</v>
       </c>
@@ -1564,7 +1589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C50" s="13">
         <v>232</v>
       </c>
@@ -1572,7 +1597,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C51" s="13">
         <v>233</v>
       </c>
@@ -1580,7 +1605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C52" s="13">
         <v>234</v>
       </c>
@@ -1588,7 +1613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C53" s="13">
         <v>235</v>
       </c>
@@ -1596,7 +1621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C54" s="13">
         <v>236</v>
       </c>
@@ -1604,7 +1629,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C55" s="13">
         <v>237</v>
       </c>
@@ -1612,7 +1637,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C56" s="13">
         <v>238</v>
       </c>
@@ -1620,7 +1645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C57" s="13">
         <v>239</v>
       </c>
@@ -1628,7 +1653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C58" s="13">
         <v>240</v>
       </c>
@@ -1636,7 +1661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C59" s="13">
         <v>241</v>
       </c>
@@ -1644,44 +1669,50 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C60" s="13">
         <v>242</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C61" s="13">
         <v>243</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C62" s="13">
         <v>244</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C63" s="13">
         <v>245</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C64" s="13">
         <v>246</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1689,7 +1720,7 @@
         <v>247</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -1697,7 +1728,7 @@
         <v>248</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1705,7 +1736,7 @@
         <v>250</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1713,7 +1744,7 @@
         <v>251</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1721,7 +1752,7 @@
         <v>253</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1729,7 +1760,7 @@
         <v>255</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1737,7 +1768,7 @@
         <v>256</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1745,7 +1776,7 @@
         <v>257</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1753,7 +1784,7 @@
         <v>259</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1761,7 +1792,7 @@
         <v>263</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1769,7 +1800,7 @@
         <v>264</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1777,7 +1808,7 @@
         <v>265</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1785,7 +1816,7 @@
         <v>266</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1793,7 +1824,7 @@
         <v>270</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1801,7 +1832,7 @@
         <v>271</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1809,7 +1840,7 @@
         <v>272</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1817,31 +1848,31 @@
         <v>273</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="409.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="382.8" x14ac:dyDescent="0.4">
       <c r="C83" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="174" x14ac:dyDescent="0.4">
       <c r="C84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
